--- a/net/sta/31-syburg.xlsx
+++ b/net/sta/31-syburg.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD9B3C-0CF1-4B69-AA01-4DFAF9CC7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FDFFD4-D566-481A-9C3F-1C44289AF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung goniom. Koord." sheetId="2" r:id="rId1"/>
     <sheet name="Hinweise" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -168,9 +161,6 @@
     <t>10 I Westhofen</t>
   </si>
   <si>
-    <t>Flur XXX</t>
-  </si>
-  <si>
     <t>Flur III</t>
   </si>
   <si>
@@ -412,6 +402,9 @@
   </si>
   <si>
     <t>1 III</t>
+  </si>
+  <si>
+    <t>Flur I Polygon 3</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1075,8 @@
   <dimension ref="A1:AE154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L140" sqref="L140"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -1225,10 +1218,10 @@
       <c r="AD3" s="26"/>
       <c r="AE3" s="26"/>
     </row>
-    <row r="4" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" s="10" customFormat="1" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C4" s="16"/>
       <c r="F4" s="23"/>
@@ -1328,7 +1321,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
@@ -1350,7 +1343,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA12" t="s">
         <v>18</v>
@@ -1367,7 +1360,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="s">
         <v>18</v>
@@ -1384,7 +1377,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA14" t="s">
         <v>18</v>
@@ -1401,7 +1394,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="s">
         <v>18</v>
@@ -1418,7 +1411,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA16" t="s">
         <v>18</v>
@@ -1571,7 +1564,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA25" t="s">
         <v>19</v>
@@ -1588,7 +1581,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA26" t="s">
         <v>19</v>
@@ -1605,7 +1598,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA27" t="s">
         <v>18</v>
@@ -1622,7 +1615,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="s">
         <v>18</v>
@@ -1639,7 +1632,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA29" t="s">
         <v>18</v>
@@ -1656,7 +1649,7 @@
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA30" t="s">
         <v>18</v>
@@ -1673,7 +1666,7 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA31" t="s">
         <v>18</v>
@@ -1690,7 +1683,7 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA32" t="s">
         <v>18</v>
@@ -1707,7 +1700,7 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA33" t="s">
         <v>18</v>
@@ -1724,7 +1717,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA34" t="s">
         <v>18</v>
@@ -1741,7 +1734,7 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA35" t="s">
         <v>18</v>
@@ -1758,7 +1751,7 @@
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA36" t="s">
         <v>18</v>
@@ -1775,7 +1768,7 @@
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA37" t="s">
         <v>18</v>
@@ -2052,7 +2045,7 @@
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA55" t="s">
         <v>18</v>
@@ -2069,7 +2062,7 @@
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA56" t="s">
         <v>18</v>
@@ -2086,7 +2079,7 @@
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA57" t="s">
         <v>18</v>
@@ -2103,7 +2096,7 @@
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA58" t="s">
         <v>18</v>
@@ -2120,7 +2113,7 @@
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA59" t="s">
         <v>18</v>
@@ -2137,7 +2130,7 @@
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA60" t="s">
         <v>18</v>
@@ -2154,7 +2147,7 @@
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA61" t="s">
         <v>18</v>
@@ -2171,7 +2164,7 @@
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA62" t="s">
         <v>18</v>
@@ -2188,7 +2181,7 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA63" t="s">
         <v>18</v>
@@ -2205,7 +2198,7 @@
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s">
         <v>18</v>
@@ -2222,7 +2215,7 @@
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA65" t="s">
         <v>18</v>
@@ -2239,7 +2232,7 @@
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s">
         <v>18</v>
@@ -2256,7 +2249,7 @@
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s">
         <v>18</v>
@@ -2273,7 +2266,7 @@
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s">
         <v>18</v>
@@ -2290,7 +2283,7 @@
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s">
         <v>18</v>
@@ -2358,7 +2351,7 @@
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.45">
@@ -2397,7 +2390,7 @@
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s">
         <v>18</v>
@@ -2431,12 +2424,12 @@
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s">
         <v>18</v>
@@ -2453,7 +2446,7 @@
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA82" t="s">
         <v>18</v>
@@ -2470,7 +2463,7 @@
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA83" t="s">
         <v>18</v>
@@ -2487,7 +2480,7 @@
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA84" t="s">
         <v>18</v>
@@ -2504,7 +2497,7 @@
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA85" t="s">
         <v>18</v>
@@ -2521,7 +2514,7 @@
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA86" t="s">
         <v>18</v>
@@ -2538,7 +2531,7 @@
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA87" t="s">
         <v>18</v>
@@ -2555,7 +2548,7 @@
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA88" t="s">
         <v>18</v>
@@ -2572,7 +2565,7 @@
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA89" t="s">
         <v>18</v>
@@ -2589,7 +2582,7 @@
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA90" t="s">
         <v>19</v>
@@ -2606,7 +2599,7 @@
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA91" t="s">
         <v>19</v>
@@ -2623,7 +2616,7 @@
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA92" t="s">
         <v>19</v>
@@ -2640,7 +2633,7 @@
     </row>
     <row r="93" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA93" t="s">
         <v>19</v>
@@ -2657,7 +2650,7 @@
     </row>
     <row r="94" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA94" t="s">
         <v>19</v>
@@ -2708,7 +2701,7 @@
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA97" t="s">
         <v>19</v>
@@ -2725,7 +2718,7 @@
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA98" t="s">
         <v>19</v>
@@ -2997,7 +2990,7 @@
     </row>
     <row r="114" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B114" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA114" t="s">
         <v>18</v>
@@ -3014,7 +3007,7 @@
     </row>
     <row r="115" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA115" t="s">
         <v>18</v>
@@ -3031,7 +3024,7 @@
     </row>
     <row r="116" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B116" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA116" t="s">
         <v>18</v>
@@ -3048,7 +3041,7 @@
     </row>
     <row r="117" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA117" t="s">
         <v>18</v>
@@ -3065,7 +3058,7 @@
     </row>
     <row r="118" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA118" t="s">
         <v>18</v>
@@ -3082,7 +3075,7 @@
     </row>
     <row r="119" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA119" t="s">
         <v>18</v>
@@ -3099,7 +3092,7 @@
     </row>
     <row r="120" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA120" t="s">
         <v>18</v>
@@ -3116,7 +3109,7 @@
     </row>
     <row r="121" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA121" t="s">
         <v>18</v>
@@ -3133,12 +3126,12 @@
     </row>
     <row r="123" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B124" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA124" t="s">
         <v>18</v>
@@ -3155,7 +3148,7 @@
     </row>
     <row r="125" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA125" t="s">
         <v>18</v>
@@ -3172,7 +3165,7 @@
     </row>
     <row r="126" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA126" t="s">
         <v>18</v>
@@ -3189,7 +3182,7 @@
     </row>
     <row r="127" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA127" t="s">
         <v>18</v>
@@ -3325,7 +3318,7 @@
     </row>
     <row r="135" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA135" t="s">
         <v>18</v>
@@ -3342,7 +3335,7 @@
     </row>
     <row r="136" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA136" t="s">
         <v>18</v>
@@ -3359,7 +3352,7 @@
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA137" t="s">
         <v>18</v>
@@ -3376,7 +3369,7 @@
     </row>
     <row r="138" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA138" t="s">
         <v>18</v>
@@ -3393,7 +3386,7 @@
     </row>
     <row r="139" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA139" t="s">
         <v>18</v>
@@ -3410,7 +3403,7 @@
     </row>
     <row r="140" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA140" t="s">
         <v>18</v>
@@ -3427,7 +3420,7 @@
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B141" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA141" t="s">
         <v>18</v>
@@ -3444,7 +3437,7 @@
     </row>
     <row r="142" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA142" t="s">
         <v>18</v>
@@ -3461,7 +3454,7 @@
     </row>
     <row r="143" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA143" t="s">
         <v>18</v>
@@ -3478,7 +3471,7 @@
     </row>
     <row r="144" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B144" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA144" t="s">
         <v>18</v>
@@ -3495,7 +3488,7 @@
     </row>
     <row r="145" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA145" t="s">
         <v>18</v>
@@ -3512,7 +3505,7 @@
     </row>
     <row r="146" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B146" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA146" t="s">
         <v>18</v>
@@ -3529,7 +3522,7 @@
     </row>
     <row r="147" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA147" t="s">
         <v>18</v>
@@ -3546,7 +3539,7 @@
     </row>
     <row r="148" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA148" t="s">
         <v>18</v>
@@ -3563,7 +3556,7 @@
     </row>
     <row r="149" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B149" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA149" t="s">
         <v>18</v>
@@ -3580,7 +3573,7 @@
     </row>
     <row r="150" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA150" t="s">
         <v>18</v>
@@ -3597,7 +3590,7 @@
     </row>
     <row r="151" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B151" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA151" t="s">
         <v>18</v>
@@ -3614,7 +3607,7 @@
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B152" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA152" t="s">
         <v>18</v>
@@ -3631,7 +3624,7 @@
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B153" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA153" t="s">
         <v>18</v>
@@ -3648,7 +3641,7 @@
     </row>
     <row r="154" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B154" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA154" t="s">
         <v>18</v>
